--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/61_Nevşehir_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/61_Nevşehir_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D0D7411-A00B-45A3-B018-1B43316B5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB90E14B-AE92-474C-BEFA-60AE76EA9AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{482A967B-40BD-450C-9CC8-11447D3F57B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{F517BE8A-FFFE-4F69-BB0D-AEB43A623A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -959,14 +959,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9DA9B3C8-2C47-4C4A-B386-D4D7E7FF4B5F}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{544134DE-9DD6-4E9E-862E-22495C4E2A9B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{044064C4-A16C-4F52-A5FC-C4ADCB1E85E4}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{33036A25-EB33-4EF7-B4BC-1C15D4C6F074}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4D106A25-AE5F-4616-B383-304AA00EA05D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{49FE7E22-AF0C-4C66-A13F-320C2DB9995E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A0E7F95F-9AC2-40F3-9D18-6A63BF1BA07C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C0361A6F-86C0-4DA1-8946-80B026318D61}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F6E08BA7-9089-4E0D-94D0-5CAB28F0FE77}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6DD22FFB-434C-4A19-92EC-6A3AEB46E5F7}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{90D21AC3-5F75-4C9E-932C-B2C48918B7B7}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{C4ECF455-DC5F-4D1F-A3E4-290FCF234BE6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2AB6B73F-397D-4A36-88A5-BC01B942CA2B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DC57A13B-81B1-45AD-8EB9-579C985544D7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{358BE2B1-FDD6-4F53-9463-252BA619E45F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D712EDC7-4343-4AC3-A946-E1B827BD2269}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1336,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D5F31C-3D37-405B-87E6-F8331B7D23AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4379643C-B7EF-49E7-B712-A51C99A9224C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85147EF6-B017-409D-AD1B-93FB382658B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6723FD7-340E-4DCD-84F5-34BAF0B3E4F8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3831,7 +3831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1283B2-62D5-4299-8F26-72068267D863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FC16F5-3622-4011-80A0-914B3C36D463}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5050,7 +5050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6C4460-3600-4EF9-900C-139EEEB5F29E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF9C58A-85E4-423A-A377-A5A71E7CAAE4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6265,7 +6265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B82FD7-FACC-40E6-AAF4-105BCFE581A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A9942D-A187-4548-A94B-9887E9CFA95B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7530,7 +7530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B472375D-4743-4331-A610-27A5D28864F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE9958-D62D-45FB-ABE1-6E46F4365F1B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8795,7 +8795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A95A192-218E-49D9-BAFE-33ADB5CA8A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586E030-B190-4106-8C04-3AB4B7245D5E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10060,7 +10060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2682B6-4D07-466F-A028-31DAAD151817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9700C-66A6-4D06-989B-CD36B742ECA1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11325,7 +11325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B9DD8A-84A0-47AB-A41C-BEBA5B337C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE677D0E-D620-4C31-9716-51A9425F78AA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12586,7 +12586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF7B1F9-7C28-4771-BA8D-A16ED8E470F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E4B151-3618-4412-B34E-BD5507E82CF1}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13835,7 +13835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0954D1ED-0E57-43A3-AF77-91E260F9EDDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CC3416-4C29-48A5-90C0-0A119EAD28EB}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15084,7 +15084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12100930-0BBF-495B-BECF-912030D50115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB61E3-0FAF-4FDA-B564-1318ED41BA35}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
